--- a/Triangle.xlsx
+++ b/Triangle.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\UFUKTEBS\Documents\MS\04_CSCI_E124\05_PAs\02_PA2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{89B1D1EE-0C97-4E0B-A67A-AD0E1CABE016}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D2632FD-13DF-4743-94C8-33B0B7E94B37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{BE23ACB4-123C-4CEC-92BF-24817EC0B71F}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{BE23ACB4-123C-4CEC-92BF-24817EC0B71F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$AG$5:$AH$55</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -56,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="9">
   <si>
     <t>p</t>
   </si>
@@ -69,17 +72,40 @@
   <si>
     <t>delta</t>
   </si>
+  <si>
+    <t>Expectation</t>
+  </si>
+  <si>
+    <t>Number of Triangles in Graph</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>probability</t>
+  </si>
+  <si>
+    <t>Number of Triangles</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
-    <numFmt numFmtId="167" formatCode="0.000000"/>
-    <numFmt numFmtId="170" formatCode="0.0"/>
+    <numFmt numFmtId="165" formatCode="0.000000"/>
+    <numFmt numFmtId="166" formatCode="0.0"/>
+    <numFmt numFmtId="167" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -102,7 +128,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -190,37 +216,67 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="170" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="170" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="170" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="170" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -233,6 +289,2208 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$AG$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Number of Triangles</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$AF$6:$AF$55</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="50"/>
+                <c:pt idx="0">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.03</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.03</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.03</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.03</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.03</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.03</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.03</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.03</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.03</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.03</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.05</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$AG$6:$AG$55</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="50"/>
+                <c:pt idx="0">
+                  <c:v>155</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>162</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>173</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>175</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>178</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>183</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>184</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>186</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>194</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>196</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1327</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1407</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1428</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1446</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1455</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1456</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1469</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1513</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1515</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1526</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>4682</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>4687</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>4705</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>4753</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>4789</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>4813</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>4883</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>4936</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>4994</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>5004</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>10995</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>11259</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>11378</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>11402</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>11445</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>11543</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>11609</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>11662</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>11912</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>11948</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>21793</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>21944</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>22118</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>22207</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>22303</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>22307</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>22446</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>22490</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>22808</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>22852</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-6866-49BC-98E8-EBAC2AAC963E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="626909064"/>
+        <c:axId val="626912016"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="626909064"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="626912016"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="626912016"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="626909064"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="power"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$K$48:$K$61</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.03</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.2000000000000002</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.6</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.4</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$L$48:$L$61</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>178.43302400000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1427.4641920000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4817.691648</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>11419.713536000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>22304.128000000004</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>178433.02400000003</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1427464.1920000003</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>11419713.536000002</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>91357708.288000017</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>308332265.47200012</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>730861666.30400014</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1427464192</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2466658123.776</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3916961742.8479991</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-41B4-4045-AE82-3F3321EAED28}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1107264088"/>
+        <c:axId val="1107262448"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1107264088"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1107262448"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1107262448"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1107264088"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>76199</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>155257</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>54</xdr:col>
+      <xdr:colOff>523874</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D5871306-C180-4A69-9F3C-EAD2E31060C9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>105727</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>320040</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>173355</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C27C4D5F-FBCA-4E9A-9ABE-2241530DE1DB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -532,19 +2790,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0050477-7F00-45F0-BE19-BE7C8DBE9156}">
-  <dimension ref="A5:W45"/>
+  <dimension ref="A5:AH61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="U36" sqref="T36:U38"/>
+    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="H38" sqref="H38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="9" max="9" width="10" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.33203125" customWidth="1"/>
     <col min="13" max="13" width="10.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:34" x14ac:dyDescent="0.3">
       <c r="I5">
         <f>1024*1023*1022/6</f>
         <v>178433024</v>
@@ -553,8 +2812,17 @@
         <f>8*7*6/6</f>
         <v>56</v>
       </c>
-    </row>
-    <row r="6" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AF5" t="s">
+        <v>7</v>
+      </c>
+      <c r="AG5" t="s">
+        <v>8</v>
+      </c>
+      <c r="AH5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:34" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="Q6">
         <v>16</v>
       </c>
@@ -567,8 +2835,30 @@
       <c r="W6" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="Z6" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA6" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB6" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="AE6">
+        <f>AVERAGE(AG6:AG15)</f>
+        <v>178.6</v>
+      </c>
+      <c r="AF6" s="21">
+        <v>0.01</v>
+      </c>
+      <c r="AG6" s="25">
+        <v>155</v>
+      </c>
+      <c r="AH6">
+        <v>178.43302399999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:34" x14ac:dyDescent="0.3">
       <c r="H7" t="s">
         <v>0</v>
       </c>
@@ -580,6 +2870,10 @@
         <f>(2*Q6-1)*Q6^2</f>
         <v>7936</v>
       </c>
+      <c r="T7" s="1">
+        <f>AVERAGE(U7:U11)</f>
+        <v>164.6</v>
+      </c>
       <c r="U7" s="18">
         <v>180</v>
       </c>
@@ -590,8 +2884,30 @@
         <f>U7-V7</f>
         <v>1.566976000000011</v>
       </c>
-    </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="Y7" s="24">
+        <f>ABS(AA7-AB7)/AA7</f>
+        <v>7.5283283883593149E-2</v>
+      </c>
+      <c r="Z7" s="21">
+        <v>0.01</v>
+      </c>
+      <c r="AA7" s="22">
+        <v>178.43302399999999</v>
+      </c>
+      <c r="AB7" s="23">
+        <v>165</v>
+      </c>
+      <c r="AF7" s="21">
+        <v>0.01</v>
+      </c>
+      <c r="AG7" s="25">
+        <v>162</v>
+      </c>
+      <c r="AH7">
+        <v>178.43302399999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:34" x14ac:dyDescent="0.3">
       <c r="H8">
         <v>0.01</v>
       </c>
@@ -613,13 +2929,35 @@
         <f t="shared" ref="W8:W30" si="0">U8-V8</f>
         <v>-11.433023999999989</v>
       </c>
-    </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="Y8" s="24">
+        <f t="shared" ref="Y8:Y11" si="1">ABS(AA8-AB8)/AA8</f>
+        <v>2.6295446295860631E-2</v>
+      </c>
+      <c r="Z8" s="21">
+        <v>0.02</v>
+      </c>
+      <c r="AA8" s="22">
+        <v>1427.4641919999999</v>
+      </c>
+      <c r="AB8" s="23">
+        <v>1465</v>
+      </c>
+      <c r="AF8" s="21">
+        <v>0.01</v>
+      </c>
+      <c r="AG8" s="25">
+        <v>173</v>
+      </c>
+      <c r="AH8">
+        <v>178.43302399999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:34" x14ac:dyDescent="0.3">
       <c r="H9">
         <v>0.02</v>
       </c>
       <c r="I9" s="1">
-        <f t="shared" ref="I9:I12" si="1">$I$5*H9^3</f>
+        <f t="shared" ref="I9:I12" si="2">$I$5*H9^3</f>
         <v>1427.4641920000001</v>
       </c>
       <c r="U9" s="9">
@@ -632,13 +2970,35 @@
         <f t="shared" si="0"/>
         <v>-14.433023999999989</v>
       </c>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="Y9" s="24">
+        <f t="shared" si="1"/>
+        <v>2.8915995912241976E-2</v>
+      </c>
+      <c r="Z9" s="21">
+        <v>0.03</v>
+      </c>
+      <c r="AA9" s="22">
+        <v>4817.69164799999</v>
+      </c>
+      <c r="AB9" s="23">
+        <v>4957</v>
+      </c>
+      <c r="AF9" s="21">
+        <v>0.01</v>
+      </c>
+      <c r="AG9" s="25">
+        <v>175</v>
+      </c>
+      <c r="AH9">
+        <v>178.43302399999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:34" x14ac:dyDescent="0.3">
       <c r="H10">
         <v>0.03</v>
       </c>
       <c r="I10" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4817.691648</v>
       </c>
       <c r="O10" s="5">
@@ -659,13 +3019,35 @@
         <f t="shared" si="0"/>
         <v>-38.433023999999989</v>
       </c>
-    </row>
-    <row r="11" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Y10" s="24">
+        <f t="shared" si="1"/>
+        <v>3.5277998763278882E-3</v>
+      </c>
+      <c r="Z10" s="21">
+        <v>0.04</v>
+      </c>
+      <c r="AA10" s="22">
+        <v>11419.713535999999</v>
+      </c>
+      <c r="AB10" s="23">
+        <v>11460</v>
+      </c>
+      <c r="AF10" s="21">
+        <v>0.01</v>
+      </c>
+      <c r="AG10" s="25">
+        <v>178</v>
+      </c>
+      <c r="AH10">
+        <v>178.43302399999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:34" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="H11">
         <v>0.04</v>
       </c>
       <c r="I11" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>11419.713536000001</v>
       </c>
       <c r="Q11">
@@ -686,19 +3068,45 @@
         <f t="shared" si="0"/>
         <v>-6.433023999999989</v>
       </c>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="Y11" s="24">
+        <f t="shared" si="1"/>
+        <v>1.4128685057761532E-2</v>
+      </c>
+      <c r="Z11" s="21">
+        <v>0.05</v>
+      </c>
+      <c r="AA11" s="22">
+        <v>22304.128000000001</v>
+      </c>
+      <c r="AB11" s="23">
+        <v>21989</v>
+      </c>
+      <c r="AF11" s="21">
+        <v>0.01</v>
+      </c>
+      <c r="AG11" s="25">
+        <v>183</v>
+      </c>
+      <c r="AH11">
+        <v>178.43302399999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:34" x14ac:dyDescent="0.3">
       <c r="H12">
         <v>0.05</v>
       </c>
       <c r="I12" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>22304.128000000004</v>
       </c>
       <c r="Q12">
         <f>Q11-R11</f>
         <v>2.5076355086639524E-5</v>
       </c>
+      <c r="T12" s="1">
+        <f>AVERAGE(U12:U16)</f>
+        <v>1465.4</v>
+      </c>
       <c r="U12" s="6">
         <v>1570</v>
       </c>
@@ -709,8 +3117,17 @@
         <f t="shared" si="0"/>
         <v>142.53580800000009</v>
       </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="AF12" s="21">
+        <v>0.01</v>
+      </c>
+      <c r="AG12" s="25">
+        <v>184</v>
+      </c>
+      <c r="AH12">
+        <v>178.43302399999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:34" x14ac:dyDescent="0.3">
       <c r="U13" s="9">
         <v>1482</v>
       </c>
@@ -721,8 +3138,17 @@
         <f t="shared" si="0"/>
         <v>54.535808000000088</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="AF13" s="21">
+        <v>0.01</v>
+      </c>
+      <c r="AG13" s="25">
+        <v>186</v>
+      </c>
+      <c r="AH13">
+        <v>178.43302399999999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:34" x14ac:dyDescent="0.3">
       <c r="U14" s="9">
         <v>1390</v>
       </c>
@@ -733,8 +3159,26 @@
         <f t="shared" si="0"/>
         <v>-37.464191999999912</v>
       </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="Z14" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA14" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB14" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="AF14" s="21">
+        <v>0.01</v>
+      </c>
+      <c r="AG14" s="25">
+        <v>194</v>
+      </c>
+      <c r="AH14">
+        <v>178.43302399999999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:34" x14ac:dyDescent="0.3">
       <c r="U15" s="15">
         <v>1406</v>
       </c>
@@ -745,8 +3189,30 @@
         <f t="shared" si="0"/>
         <v>-21.464191999999912</v>
       </c>
-    </row>
-    <row r="16" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Y15" s="24">
+        <f>ABS(AA15-AB15)/AA15</f>
+        <v>9.357908993348975E-4</v>
+      </c>
+      <c r="Z15" s="21">
+        <v>0.01</v>
+      </c>
+      <c r="AA15" s="22">
+        <v>178.43302399999999</v>
+      </c>
+      <c r="AB15" s="22">
+        <v>178.6</v>
+      </c>
+      <c r="AF15" s="21">
+        <v>0.01</v>
+      </c>
+      <c r="AG15" s="25">
+        <v>196</v>
+      </c>
+      <c r="AH15">
+        <v>178.43302399999999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:34" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>0</v>
       </c>
@@ -806,8 +3272,35 @@
         <f t="shared" si="0"/>
         <v>51.535808000000088</v>
       </c>
-    </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="Y16" s="24">
+        <f t="shared" ref="Y16:Y19" si="3">ABS(AA16-AB16)/AA16</f>
+        <v>1.8729582254908245E-2</v>
+      </c>
+      <c r="Z16" s="21">
+        <v>0.02</v>
+      </c>
+      <c r="AA16" s="22">
+        <v>1427.4641919999999</v>
+      </c>
+      <c r="AB16" s="22">
+        <v>1454.2</v>
+      </c>
+      <c r="AE16">
+        <f>AVERAGE(AG16:AG25)</f>
+        <v>1454.2</v>
+      </c>
+      <c r="AF16">
+        <f>AF6+0.01</f>
+        <v>0.02</v>
+      </c>
+      <c r="AG16" s="25">
+        <v>1327</v>
+      </c>
+      <c r="AH16">
+        <v>1427.4641919999999</v>
+      </c>
+    </row>
+    <row r="17" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>0</v>
       </c>
@@ -855,6 +3348,10 @@
       </c>
       <c r="Q17">
         <v>1</v>
+      </c>
+      <c r="T17" s="1">
+        <f>AVERAGE(U17:U21)</f>
+        <v>4956.6000000000004</v>
       </c>
       <c r="U17" s="6">
         <v>4913</v>
@@ -866,8 +3363,31 @@
         <f t="shared" si="0"/>
         <v>95.308352000010018</v>
       </c>
-    </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="Y17" s="24">
+        <f t="shared" si="3"/>
+        <v>1.4339547868071436E-3</v>
+      </c>
+      <c r="Z17" s="21">
+        <v>0.03</v>
+      </c>
+      <c r="AA17" s="22">
+        <v>4817.69164799999</v>
+      </c>
+      <c r="AB17" s="22">
+        <v>4824.6000000000004</v>
+      </c>
+      <c r="AF17">
+        <f t="shared" ref="AF17:AF55" si="4">AF7+0.01</f>
+        <v>0.02</v>
+      </c>
+      <c r="AG17" s="25">
+        <v>1407</v>
+      </c>
+      <c r="AH17">
+        <v>1427.4641919999999</v>
+      </c>
+    </row>
+    <row r="18" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>0</v>
       </c>
@@ -926,8 +3446,31 @@
         <f t="shared" si="0"/>
         <v>144.30835200001002</v>
       </c>
-    </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="Y18" s="24">
+        <f t="shared" si="3"/>
+        <v>8.3703031340207502E-3</v>
+      </c>
+      <c r="Z18" s="21">
+        <v>0.04</v>
+      </c>
+      <c r="AA18" s="22">
+        <v>11419.713535999999</v>
+      </c>
+      <c r="AB18" s="22">
+        <v>11515.3</v>
+      </c>
+      <c r="AF18">
+        <f t="shared" si="4"/>
+        <v>0.02</v>
+      </c>
+      <c r="AG18" s="25">
+        <v>1428</v>
+      </c>
+      <c r="AH18">
+        <v>1427.4641919999999</v>
+      </c>
+    </row>
+    <row r="19" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>0</v>
       </c>
@@ -986,8 +3529,31 @@
         <f t="shared" si="0"/>
         <v>74.308352000010018</v>
       </c>
-    </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="Y19" s="24">
+        <f t="shared" si="3"/>
+        <v>1.0164934491049666E-3</v>
+      </c>
+      <c r="Z19" s="21">
+        <v>0.05</v>
+      </c>
+      <c r="AA19" s="22">
+        <v>22304.128000000001</v>
+      </c>
+      <c r="AB19" s="22">
+        <v>22326.799999999999</v>
+      </c>
+      <c r="AF19">
+        <f t="shared" si="4"/>
+        <v>0.02</v>
+      </c>
+      <c r="AG19" s="25">
+        <v>1446</v>
+      </c>
+      <c r="AH19">
+        <v>1427.4641919999999</v>
+      </c>
+    </row>
+    <row r="20" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>0</v>
       </c>
@@ -1046,8 +3612,18 @@
         <f t="shared" si="0"/>
         <v>237.30835200001002</v>
       </c>
-    </row>
-    <row r="21" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AF20">
+        <f t="shared" si="4"/>
+        <v>0.02</v>
+      </c>
+      <c r="AG20" s="25">
+        <v>1455</v>
+      </c>
+      <c r="AH20">
+        <v>1427.4641919999999</v>
+      </c>
+    </row>
+    <row r="21" spans="1:34" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>0</v>
       </c>
@@ -1106,8 +3682,18 @@
         <f t="shared" si="0"/>
         <v>143.30835200001002</v>
       </c>
-    </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="AF21">
+        <f t="shared" si="4"/>
+        <v>0.02</v>
+      </c>
+      <c r="AG21" s="25">
+        <v>1456</v>
+      </c>
+      <c r="AH21">
+        <v>1427.4641919999999</v>
+      </c>
+    </row>
+    <row r="22" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>1</v>
       </c>
@@ -1155,6 +3741,10 @@
       </c>
       <c r="Q22">
         <v>0</v>
+      </c>
+      <c r="T22" s="1">
+        <f>AVERAGE(U22:U26)</f>
+        <v>11460</v>
       </c>
       <c r="U22" s="18">
         <v>11424</v>
@@ -1166,8 +3756,18 @@
         <f t="shared" si="0"/>
         <v>4.2864640000007057</v>
       </c>
-    </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="AF22">
+        <f t="shared" si="4"/>
+        <v>0.02</v>
+      </c>
+      <c r="AG22" s="25">
+        <v>1469</v>
+      </c>
+      <c r="AH22">
+        <v>1427.4641919999999</v>
+      </c>
+    </row>
+    <row r="23" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>0</v>
       </c>
@@ -1226,8 +3826,18 @@
         <f t="shared" si="0"/>
         <v>229.28646400000071</v>
       </c>
-    </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="AF23">
+        <f t="shared" si="4"/>
+        <v>0.02</v>
+      </c>
+      <c r="AG23" s="25">
+        <v>1513</v>
+      </c>
+      <c r="AH23">
+        <v>1427.4641919999999</v>
+      </c>
+    </row>
+    <row r="24" spans="1:34" x14ac:dyDescent="0.3">
       <c r="U24" s="9">
         <v>11279</v>
       </c>
@@ -1238,8 +3848,18 @@
         <f t="shared" si="0"/>
         <v>-140.71353599999929</v>
       </c>
-    </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="AF24">
+        <f t="shared" si="4"/>
+        <v>0.02</v>
+      </c>
+      <c r="AG24" s="25">
+        <v>1515</v>
+      </c>
+      <c r="AH24">
+        <v>1427.4641919999999</v>
+      </c>
+    </row>
+    <row r="25" spans="1:34" x14ac:dyDescent="0.3">
       <c r="U25" s="9">
         <v>11104</v>
       </c>
@@ -1250,8 +3870,18 @@
         <f t="shared" si="0"/>
         <v>-315.71353599999929</v>
       </c>
-    </row>
-    <row r="26" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AF25">
+        <f t="shared" si="4"/>
+        <v>0.02</v>
+      </c>
+      <c r="AG25" s="25">
+        <v>1526</v>
+      </c>
+      <c r="AH25">
+        <v>1427.4641919999999</v>
+      </c>
+    </row>
+    <row r="26" spans="1:34" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="H26" s="4">
         <f>SUM(J26,K27,L28,M29,N30,O31,P32,Q33)/6</f>
         <v>1</v>
@@ -1291,8 +3921,22 @@
         <f t="shared" si="0"/>
         <v>424.28646400000071</v>
       </c>
-    </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="AE26">
+        <f>AVERAGE(AG26:AG35)</f>
+        <v>4824.6000000000004</v>
+      </c>
+      <c r="AF26">
+        <f t="shared" si="4"/>
+        <v>0.03</v>
+      </c>
+      <c r="AG26" s="25">
+        <v>4682</v>
+      </c>
+      <c r="AH26">
+        <v>4817.69164799999</v>
+      </c>
+    </row>
+    <row r="27" spans="1:34" x14ac:dyDescent="0.3">
       <c r="J27">
         <v>0</v>
       </c>
@@ -1316,6 +3960,10 @@
       </c>
       <c r="Q27">
         <v>0</v>
+      </c>
+      <c r="T27" s="1">
+        <f>AVERAGE(U27:U31)</f>
+        <v>21989.25</v>
       </c>
       <c r="U27" s="6">
         <v>21563</v>
@@ -1327,8 +3975,18 @@
         <f t="shared" si="0"/>
         <v>-741.12800000000061</v>
       </c>
-    </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="AF27">
+        <f t="shared" si="4"/>
+        <v>0.03</v>
+      </c>
+      <c r="AG27" s="25">
+        <v>4687</v>
+      </c>
+      <c r="AH27">
+        <v>4817.69164799999</v>
+      </c>
+    </row>
+    <row r="28" spans="1:34" x14ac:dyDescent="0.3">
       <c r="J28">
         <v>1</v>
       </c>
@@ -1363,8 +4021,18 @@
         <f t="shared" si="0"/>
         <v>-324.12800000000061</v>
       </c>
-    </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="AF28">
+        <f t="shared" si="4"/>
+        <v>0.03</v>
+      </c>
+      <c r="AG28" s="25">
+        <v>4705</v>
+      </c>
+      <c r="AH28">
+        <v>4817.69164799999</v>
+      </c>
+    </row>
+    <row r="29" spans="1:34" x14ac:dyDescent="0.3">
       <c r="J29">
         <v>0</v>
       </c>
@@ -1399,8 +4067,18 @@
         <f t="shared" si="0"/>
         <v>107.87199999999939</v>
       </c>
-    </row>
-    <row r="30" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AF29">
+        <f t="shared" si="4"/>
+        <v>0.03</v>
+      </c>
+      <c r="AG29" s="25">
+        <v>4753</v>
+      </c>
+      <c r="AH29">
+        <v>4817.69164799999</v>
+      </c>
+    </row>
+    <row r="30" spans="1:34" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="J30">
         <v>1</v>
       </c>
@@ -1435,8 +4113,18 @@
         <f t="shared" si="0"/>
         <v>-302.12800000000061</v>
       </c>
-    </row>
-    <row r="31" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="AF30">
+        <f t="shared" si="4"/>
+        <v>0.03</v>
+      </c>
+      <c r="AG30" s="25">
+        <v>4789</v>
+      </c>
+      <c r="AH30">
+        <v>4817.69164799999</v>
+      </c>
+    </row>
+    <row r="31" spans="1:34" x14ac:dyDescent="0.3">
       <c r="J31">
         <v>0</v>
       </c>
@@ -1461,8 +4149,18 @@
       <c r="Q31">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="AF31">
+        <f t="shared" si="4"/>
+        <v>0.03</v>
+      </c>
+      <c r="AG31" s="25">
+        <v>4813</v>
+      </c>
+      <c r="AH31">
+        <v>4817.69164799999</v>
+      </c>
+    </row>
+    <row r="32" spans="1:34" x14ac:dyDescent="0.3">
       <c r="J32">
         <v>6</v>
       </c>
@@ -1487,8 +4185,18 @@
       <c r="Q32">
         <v>6</v>
       </c>
-    </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="AF32">
+        <f t="shared" si="4"/>
+        <v>0.03</v>
+      </c>
+      <c r="AG32" s="25">
+        <v>4883</v>
+      </c>
+      <c r="AH32">
+        <v>4817.69164799999</v>
+      </c>
+    </row>
+    <row r="33" spans="2:34" x14ac:dyDescent="0.3">
       <c r="J33">
         <v>0</v>
       </c>
@@ -1513,30 +4221,114 @@
       <c r="Q33">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="AF33">
+        <f t="shared" si="4"/>
+        <v>0.03</v>
+      </c>
+      <c r="AG33" s="25">
+        <v>4936</v>
+      </c>
+      <c r="AH33">
+        <v>4817.69164799999</v>
+      </c>
+    </row>
+    <row r="34" spans="2:34" x14ac:dyDescent="0.3">
+      <c r="AF34">
+        <f t="shared" si="4"/>
+        <v>0.03</v>
+      </c>
+      <c r="AG34" s="25">
+        <v>4994</v>
+      </c>
+      <c r="AH34">
+        <v>4817.69164799999</v>
+      </c>
+    </row>
+    <row r="35" spans="2:34" x14ac:dyDescent="0.3">
+      <c r="AF35">
+        <f t="shared" si="4"/>
+        <v>0.03</v>
+      </c>
+      <c r="AG35" s="25">
+        <v>5004</v>
+      </c>
+      <c r="AH35">
+        <v>4817.69164799999</v>
+      </c>
+    </row>
+    <row r="36" spans="2:34" x14ac:dyDescent="0.3">
+      <c r="AE36">
+        <f>AVERAGE(AG36:AG45)</f>
+        <v>11515.3</v>
+      </c>
+      <c r="AF36">
+        <f t="shared" si="4"/>
+        <v>0.04</v>
+      </c>
+      <c r="AG36" s="25">
+        <v>10995</v>
+      </c>
+      <c r="AH36">
+        <v>11419.713535999999</v>
+      </c>
+    </row>
+    <row r="37" spans="2:34" x14ac:dyDescent="0.3">
+      <c r="AF37">
+        <f t="shared" si="4"/>
+        <v>0.04</v>
+      </c>
+      <c r="AG37" s="25">
+        <v>11259</v>
+      </c>
+      <c r="AH37">
+        <v>11419.713535999999</v>
+      </c>
+    </row>
+    <row r="38" spans="2:34" x14ac:dyDescent="0.3">
+      <c r="AF38">
+        <f t="shared" si="4"/>
+        <v>0.04</v>
+      </c>
+      <c r="AG38" s="25">
+        <v>11378</v>
+      </c>
+      <c r="AH38">
+        <v>11419.713535999999</v>
+      </c>
+    </row>
+    <row r="39" spans="2:34" x14ac:dyDescent="0.3">
       <c r="B39">
         <v>1000</v>
       </c>
       <c r="C39">
-        <f t="shared" ref="C39:C43" si="2">C40*2</f>
+        <f t="shared" ref="C39:C43" si="5">C40*2</f>
         <v>1024</v>
       </c>
       <c r="E39">
         <v>1500</v>
       </c>
       <c r="F39">
-        <f t="shared" ref="F39:F43" si="3">F40*2</f>
+        <f t="shared" ref="F39:F43" si="6">F40*2</f>
         <v>1536</v>
       </c>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="AF39">
+        <f t="shared" si="4"/>
+        <v>0.04</v>
+      </c>
+      <c r="AG39" s="25">
+        <v>11402</v>
+      </c>
+      <c r="AH39">
+        <v>11419.713535999999</v>
+      </c>
+    </row>
+    <row r="40" spans="2:34" x14ac:dyDescent="0.3">
       <c r="B40">
         <f>ROUNDUP(B39/2, 0)</f>
         <v>500</v>
       </c>
       <c r="C40">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>512</v>
       </c>
       <c r="E40">
@@ -1544,67 +4336,107 @@
         <v>750</v>
       </c>
       <c r="F40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>768</v>
       </c>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="AF40">
+        <f t="shared" si="4"/>
+        <v>0.04</v>
+      </c>
+      <c r="AG40" s="25">
+        <v>11445</v>
+      </c>
+      <c r="AH40">
+        <v>11419.713535999999</v>
+      </c>
+    </row>
+    <row r="41" spans="2:34" x14ac:dyDescent="0.3">
       <c r="B41">
-        <f t="shared" ref="B41:B44" si="4">ROUNDUP(B40/2, 0)</f>
+        <f t="shared" ref="B41:B44" si="7">ROUNDUP(B40/2, 0)</f>
         <v>250</v>
       </c>
       <c r="C41">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>256</v>
       </c>
       <c r="E41">
-        <f t="shared" ref="E41:E45" si="5">ROUNDUP(E40/2, 0)</f>
+        <f t="shared" ref="E41:E45" si="8">ROUNDUP(E40/2, 0)</f>
         <v>375</v>
       </c>
       <c r="F41">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>384</v>
       </c>
-    </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="AF41">
+        <f t="shared" si="4"/>
+        <v>0.04</v>
+      </c>
+      <c r="AG41" s="25">
+        <v>11543</v>
+      </c>
+      <c r="AH41">
+        <v>11419.713535999999</v>
+      </c>
+    </row>
+    <row r="42" spans="2:34" x14ac:dyDescent="0.3">
       <c r="B42">
+        <f t="shared" si="7"/>
+        <v>125</v>
+      </c>
+      <c r="C42">
+        <f t="shared" si="5"/>
+        <v>128</v>
+      </c>
+      <c r="E42">
+        <f t="shared" si="8"/>
+        <v>188</v>
+      </c>
+      <c r="F42">
+        <f t="shared" si="6"/>
+        <v>192</v>
+      </c>
+      <c r="AF42">
         <f t="shared" si="4"/>
-        <v>125</v>
-      </c>
-      <c r="C42">
-        <f t="shared" si="2"/>
-        <v>128</v>
-      </c>
-      <c r="E42">
+        <v>0.04</v>
+      </c>
+      <c r="AG42" s="25">
+        <v>11609</v>
+      </c>
+      <c r="AH42">
+        <v>11419.713535999999</v>
+      </c>
+    </row>
+    <row r="43" spans="2:34" x14ac:dyDescent="0.3">
+      <c r="B43">
+        <f t="shared" si="7"/>
+        <v>63</v>
+      </c>
+      <c r="C43">
         <f t="shared" si="5"/>
-        <v>188</v>
-      </c>
-      <c r="F42">
-        <f t="shared" si="3"/>
-        <v>192</v>
-      </c>
-    </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B43">
+        <v>64</v>
+      </c>
+      <c r="E43">
+        <f t="shared" si="8"/>
+        <v>94</v>
+      </c>
+      <c r="F43">
+        <f t="shared" si="6"/>
+        <v>96</v>
+      </c>
+      <c r="AF43">
         <f t="shared" si="4"/>
-        <v>63</v>
-      </c>
-      <c r="C43">
-        <f t="shared" si="2"/>
-        <v>64</v>
-      </c>
-      <c r="E43">
-        <f t="shared" si="5"/>
-        <v>94</v>
-      </c>
-      <c r="F43">
-        <f t="shared" si="3"/>
-        <v>96</v>
-      </c>
-    </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.3">
+        <v>0.04</v>
+      </c>
+      <c r="AG43" s="25">
+        <v>11662</v>
+      </c>
+      <c r="AH43">
+        <v>11419.713535999999</v>
+      </c>
+    </row>
+    <row r="44" spans="2:34" x14ac:dyDescent="0.3">
       <c r="B44">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>32</v>
       </c>
       <c r="C44">
@@ -1612,15 +4444,25 @@
         <v>32</v>
       </c>
       <c r="E44">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>47</v>
       </c>
       <c r="F44">
         <f>F45*2</f>
         <v>48</v>
       </c>
-    </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="AF44">
+        <f t="shared" si="4"/>
+        <v>0.04</v>
+      </c>
+      <c r="AG44" s="25">
+        <v>11912</v>
+      </c>
+      <c r="AH44">
+        <v>11419.713535999999</v>
+      </c>
+    </row>
+    <row r="45" spans="2:34" x14ac:dyDescent="0.3">
       <c r="B45">
         <f>ROUNDUP(B44/2, 0)</f>
         <v>16</v>
@@ -1630,16 +4472,281 @@
         <v>16</v>
       </c>
       <c r="E45">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>24</v>
       </c>
       <c r="F45">
         <f>E45</f>
         <v>24</v>
       </c>
+      <c r="L45">
+        <f>1024*1023*1022/6</f>
+        <v>178433024</v>
+      </c>
+      <c r="AF45">
+        <f t="shared" si="4"/>
+        <v>0.04</v>
+      </c>
+      <c r="AG45" s="25">
+        <v>11948</v>
+      </c>
+      <c r="AH45">
+        <v>11419.713535999999</v>
+      </c>
+    </row>
+    <row r="46" spans="2:34" x14ac:dyDescent="0.3">
+      <c r="AE46">
+        <f>AVERAGE(AG46:AG55)</f>
+        <v>22326.799999999999</v>
+      </c>
+      <c r="AF46">
+        <f t="shared" si="4"/>
+        <v>0.05</v>
+      </c>
+      <c r="AG46" s="25">
+        <v>21793</v>
+      </c>
+      <c r="AH46">
+        <v>22304.128000000001</v>
+      </c>
+    </row>
+    <row r="47" spans="2:34" x14ac:dyDescent="0.3">
+      <c r="K47" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF47">
+        <f t="shared" si="4"/>
+        <v>0.05</v>
+      </c>
+      <c r="AG47" s="25">
+        <v>21944</v>
+      </c>
+      <c r="AH47">
+        <v>22304.128000000001</v>
+      </c>
+    </row>
+    <row r="48" spans="2:34" x14ac:dyDescent="0.3">
+      <c r="K48">
+        <v>0.01</v>
+      </c>
+      <c r="L48" s="1">
+        <f>$I$5*K48^3</f>
+        <v>178.43302400000002</v>
+      </c>
+      <c r="AF48">
+        <f t="shared" si="4"/>
+        <v>0.05</v>
+      </c>
+      <c r="AG48" s="25">
+        <v>22118</v>
+      </c>
+      <c r="AH48">
+        <v>22304.128000000001</v>
+      </c>
+    </row>
+    <row r="49" spans="11:34" x14ac:dyDescent="0.3">
+      <c r="K49">
+        <v>0.02</v>
+      </c>
+      <c r="L49" s="1">
+        <f t="shared" ref="L49:L61" si="9">$I$5*K49^3</f>
+        <v>1427.4641920000001</v>
+      </c>
+      <c r="AF49">
+        <f t="shared" si="4"/>
+        <v>0.05</v>
+      </c>
+      <c r="AG49" s="25">
+        <v>22207</v>
+      </c>
+      <c r="AH49">
+        <v>22304.128000000001</v>
+      </c>
+    </row>
+    <row r="50" spans="11:34" x14ac:dyDescent="0.3">
+      <c r="K50">
+        <v>0.03</v>
+      </c>
+      <c r="L50" s="1">
+        <f t="shared" si="9"/>
+        <v>4817.691648</v>
+      </c>
+      <c r="AF50">
+        <f t="shared" si="4"/>
+        <v>0.05</v>
+      </c>
+      <c r="AG50" s="25">
+        <v>22303</v>
+      </c>
+      <c r="AH50">
+        <v>22304.128000000001</v>
+      </c>
+    </row>
+    <row r="51" spans="11:34" x14ac:dyDescent="0.3">
+      <c r="K51">
+        <v>0.04</v>
+      </c>
+      <c r="L51" s="1">
+        <f t="shared" si="9"/>
+        <v>11419.713536000001</v>
+      </c>
+      <c r="AF51">
+        <f t="shared" si="4"/>
+        <v>0.05</v>
+      </c>
+      <c r="AG51" s="25">
+        <v>22307</v>
+      </c>
+      <c r="AH51">
+        <v>22304.128000000001</v>
+      </c>
+    </row>
+    <row r="52" spans="11:34" x14ac:dyDescent="0.3">
+      <c r="K52">
+        <v>0.05</v>
+      </c>
+      <c r="L52" s="1">
+        <f t="shared" si="9"/>
+        <v>22304.128000000004</v>
+      </c>
+      <c r="AF52">
+        <f t="shared" si="4"/>
+        <v>0.05</v>
+      </c>
+      <c r="AG52" s="25">
+        <v>22446</v>
+      </c>
+      <c r="AH52">
+        <v>22304.128000000001</v>
+      </c>
+    </row>
+    <row r="53" spans="11:34" x14ac:dyDescent="0.3">
+      <c r="K53">
+        <v>0.1</v>
+      </c>
+      <c r="L53" s="1">
+        <f t="shared" si="9"/>
+        <v>178433.02400000003</v>
+      </c>
+      <c r="AF53">
+        <f t="shared" si="4"/>
+        <v>0.05</v>
+      </c>
+      <c r="AG53" s="25">
+        <v>22490</v>
+      </c>
+      <c r="AH53">
+        <v>22304.128000000001</v>
+      </c>
+    </row>
+    <row r="54" spans="11:34" x14ac:dyDescent="0.3">
+      <c r="K54">
+        <f>K53*2</f>
+        <v>0.2</v>
+      </c>
+      <c r="L54" s="1">
+        <f t="shared" si="9"/>
+        <v>1427464.1920000003</v>
+      </c>
+      <c r="AF54">
+        <f t="shared" si="4"/>
+        <v>0.05</v>
+      </c>
+      <c r="AG54">
+        <v>22808</v>
+      </c>
+      <c r="AH54">
+        <v>22304.128000000001</v>
+      </c>
+    </row>
+    <row r="55" spans="11:34" x14ac:dyDescent="0.3">
+      <c r="K55">
+        <f t="shared" ref="K55:K61" si="10">K54*2</f>
+        <v>0.4</v>
+      </c>
+      <c r="L55" s="1">
+        <f t="shared" si="9"/>
+        <v>11419713.536000002</v>
+      </c>
+      <c r="AF55">
+        <f t="shared" si="4"/>
+        <v>0.05</v>
+      </c>
+      <c r="AG55" s="25">
+        <v>22852</v>
+      </c>
+      <c r="AH55">
+        <v>22304.128000000001</v>
+      </c>
+    </row>
+    <row r="56" spans="11:34" x14ac:dyDescent="0.3">
+      <c r="K56">
+        <f t="shared" si="10"/>
+        <v>0.8</v>
+      </c>
+      <c r="L56" s="1">
+        <f t="shared" si="9"/>
+        <v>91357708.288000017</v>
+      </c>
+    </row>
+    <row r="57" spans="11:34" x14ac:dyDescent="0.3">
+      <c r="K57">
+        <f>K56+0.4</f>
+        <v>1.2000000000000002</v>
+      </c>
+      <c r="L57" s="1">
+        <f t="shared" si="9"/>
+        <v>308332265.47200012</v>
+      </c>
+    </row>
+    <row r="58" spans="11:34" x14ac:dyDescent="0.3">
+      <c r="K58">
+        <f t="shared" ref="K58:K61" si="11">K57+0.4</f>
+        <v>1.6</v>
+      </c>
+      <c r="L58" s="1">
+        <f t="shared" si="9"/>
+        <v>730861666.30400014</v>
+      </c>
+    </row>
+    <row r="59" spans="11:34" x14ac:dyDescent="0.3">
+      <c r="K59">
+        <f t="shared" si="11"/>
+        <v>2</v>
+      </c>
+      <c r="L59" s="1">
+        <f t="shared" si="9"/>
+        <v>1427464192</v>
+      </c>
+    </row>
+    <row r="60" spans="11:34" x14ac:dyDescent="0.3">
+      <c r="K60">
+        <f t="shared" si="11"/>
+        <v>2.4</v>
+      </c>
+      <c r="L60" s="1">
+        <f t="shared" si="9"/>
+        <v>2466658123.776</v>
+      </c>
+    </row>
+    <row r="61" spans="11:34" x14ac:dyDescent="0.3">
+      <c r="K61">
+        <f t="shared" si="11"/>
+        <v>2.8</v>
+      </c>
+      <c r="L61" s="1">
+        <f t="shared" si="9"/>
+        <v>3916961742.8479991</v>
+      </c>
     </row>
   </sheetData>
+  <autoFilter ref="AG5:AH55" xr:uid="{C0050477-7F00-45F0-BE19-BE7C8DBE9156}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="AG6:AH55">
+      <sortCondition ref="AG5:AG55"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>